--- a/costing_bakery.xlsx
+++ b/costing_bakery.xlsx
@@ -12,17 +12,37 @@
     <sheet name="Resources" sheetId="10" r:id="rId3"/>
     <sheet name="Ingredients" sheetId="1" r:id="rId4"/>
     <sheet name="Basic loaf" sheetId="9" r:id="rId5"/>
-    <sheet name="Fennel raisin" sheetId="3" r:id="rId6"/>
-    <sheet name="Baguette" sheetId="4" r:id="rId7"/>
-    <sheet name="Croissant" sheetId="6" r:id="rId8"/>
-    <sheet name="Burger bun" sheetId="7" r:id="rId9"/>
+    <sheet name="multigrain sandwich" sheetId="33" r:id="rId6"/>
+    <sheet name="wheat roll" sheetId="32" r:id="rId7"/>
+    <sheet name="wheat sandwich" sheetId="31" r:id="rId8"/>
+    <sheet name="Hoagie" sheetId="28" r:id="rId9"/>
+    <sheet name="NYR" sheetId="25" r:id="rId10"/>
+    <sheet name="Fillone" sheetId="21" r:id="rId11"/>
+    <sheet name="Fougasse" sheetId="26" r:id="rId12"/>
+    <sheet name="Olive roll" sheetId="20" r:id="rId13"/>
+    <sheet name="Dealers Choice" sheetId="19" r:id="rId14"/>
+    <sheet name="Rocco Focaccia" sheetId="23" r:id="rId15"/>
+    <sheet name="Potato Focaccia" sheetId="27" r:id="rId16"/>
+    <sheet name="Focaccia" sheetId="18" r:id="rId17"/>
+    <sheet name="Ciabatta roll" sheetId="24" r:id="rId18"/>
+    <sheet name="Ciabatta" sheetId="17" r:id="rId19"/>
+    <sheet name="Batard" sheetId="16" r:id="rId20"/>
+    <sheet name="Toasted Sesame" sheetId="15" r:id="rId21"/>
+    <sheet name="Sunny Six" sheetId="14" r:id="rId22"/>
+    <sheet name="Pain levain" sheetId="13" r:id="rId23"/>
+    <sheet name="Fennel raisin" sheetId="3" r:id="rId24"/>
+    <sheet name="Demi" sheetId="22" r:id="rId25"/>
+    <sheet name="Baguette" sheetId="4" r:id="rId26"/>
+    <sheet name="Croissant" sheetId="6" r:id="rId27"/>
+    <sheet name="Burger bun" sheetId="7" r:id="rId28"/>
+    <sheet name="Marble rye" sheetId="11" r:id="rId29"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -280,6 +300,90 @@
   </si>
   <si>
     <t>Total units made</t>
+  </si>
+  <si>
+    <t>rye flour</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>transitional flour</t>
+  </si>
+  <si>
+    <t>Olives</t>
+  </si>
+  <si>
+    <t>olives</t>
+  </si>
+  <si>
+    <t>olive oil</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>Rye flour</t>
+  </si>
+  <si>
+    <t>whole wheat</t>
+  </si>
+  <si>
+    <t>Marble Rye</t>
+  </si>
+  <si>
+    <t>Pain levain</t>
+  </si>
+  <si>
+    <t>Sunny Six</t>
+  </si>
+  <si>
+    <t>Toasted Sesame</t>
+  </si>
+  <si>
+    <t>Batard</t>
+  </si>
+  <si>
+    <t>Ciabatta</t>
+  </si>
+  <si>
+    <t>Focaccia</t>
+  </si>
+  <si>
+    <t>Rocco Focaccia</t>
+  </si>
+  <si>
+    <t>Olive Roll</t>
+  </si>
+  <si>
+    <t>Ciabatta roll</t>
+  </si>
+  <si>
+    <t>Fougasse</t>
+  </si>
+  <si>
+    <t>Potato Focaccia</t>
+  </si>
+  <si>
+    <t>Fillone</t>
+  </si>
+  <si>
+    <t>NYR</t>
+  </si>
+  <si>
+    <t>Hoagie</t>
+  </si>
+  <si>
+    <t>Wheat Sandwich</t>
+  </si>
+  <si>
+    <t>Wheat roll</t>
+  </si>
+  <si>
+    <t>Multigrain sandwich</t>
+  </si>
+  <si>
+    <t>Dealers Choice</t>
   </si>
 </sst>
 </file>
@@ -364,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -393,6 +497,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,12 +1026,1522 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.34246575342465752</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>4.7236343227526664E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="7">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.1023122100918888E-3</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.41095890410958902</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>4.5300501784598167E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>5.1369863013698627E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="0">D4*C4</f>
+        <v>6.7950752676897251E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>1.7123287671232876E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.1167920394421973E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>B6/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.23972602739726026</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>292</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM(C2:C6)</f>
+        <v>9.1359564078891259E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(E2:E6)</f>
+        <v>9.3721587804243924E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>8.0191931525801089E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>8.7209302325581394E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.1535825454449999E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>2.9069767441860465E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8959492762623351E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.40697674418604651</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>172</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>8.0336441977972382E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>8.2203239056607925E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.53475935828877008</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>7.3759423649399924E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>8.0213903743315516E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">D3*C3</f>
+        <v>1.0610491861847059E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>2.6737967914438501E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.7438677835140195E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227513227513227E-2</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>8.0213903743315509E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.0610304727951786E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>B6/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.37433155080213903</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>187</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM(C2:C6)</f>
+        <v>2.1261157425310463E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(E2:E6)</f>
+        <v>1.8171244363105027E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.53475935828877008</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>7.3759423649399924E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>8.0213903743315516E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">D3*C3</f>
+        <v>1.0610491861847059E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>2.6737967914438501E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.7438677835140195E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227513227513227E-2</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>8.0213903743315509E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5" si="1">D5*C5</f>
+        <v>1.0610304727951786E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>B6/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.37433155080213903</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>187</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM(C2:C6)</f>
+        <v>2.1261157425310463E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(E2:E6)</f>
+        <v>1.8171244363105027E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>8.0191931525801089E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>8.7209302325581394E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.1535825454449999E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>2.9069767441860465E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8959492762623351E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.40697674418604651</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>172</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>8.0336441977972382E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>8.2203239056607925E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>9.326751794564278E-4</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>5.422530113118767E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>8.7209302325581394E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.1535825454449999E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>2.9069767441860465E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8959492762623351E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.40697674418604651</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>172</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>7.5870181550098878E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>5.6236608661994507E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>9.326751794564278E-4</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>0.17123287671232876</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>1.5970465401651159E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>2.5684931506849314E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>3.3975376338448625E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>8.5616438356164379E-4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.5839601972109863E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>0.11986301369863013</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="7">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>5.028735632183908E-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D7" si="1">B6/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E7" si="2">D6*C6</f>
+        <v>1.0333018422295701E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="7">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>8.8183421516754845E-4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>6.0399603778599209E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(B2:B7)</f>
+        <v>584</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>7.5870181550098878E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>0.29452054794520549</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>1.6562836797710709E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>9.326751794564278E-4</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.5494505494505495</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>5.1245888981122408E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>8.241758241758242E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.090198889101868E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>2.7472527472527475E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.7917762391050642E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>5.028735632183908E-3</v>
+      </c>
+      <c r="D6">
+        <f>B6/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>5.4945054945054944E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6" si="1">D6*C6</f>
+        <v>2.7630415561450045E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>182</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>7.5870181550098878E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>5.314668510913766E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>9.326751794564278E-4</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.56497175141242939</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>5.2693512963639989E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>8.4745762711864406E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.1209954678900564E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>2.8248587570621469E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8423913871023821E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>177</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>7.5870181550098878E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>5.4648003897531377E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>9.326751794564278E-4</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.56497175141242939</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>5.2693512963639989E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>8.4745762711864406E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.1209954678900564E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>2.8248587570621469E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8423913871023821E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>177</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>7.5870181550098878E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>5.4648003897531377E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +2552,7 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" customWidth="1"/>
@@ -947,7 +2562,7 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>SUMPRODUCT(C:C,D:D)</f>
-        <v>520</v>
+        <v>1895.97</v>
       </c>
       <c r="B1" t="s">
         <v>85</v>
@@ -1007,219 +2622,2847 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="7">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E27" ca="1" si="0">VLOOKUP("sum", INDIRECT(CONCATENATE("'",A4,"'!$A2:E26")),5,FALSE)</f>
+        <v>8.8515847604486513E-4</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F27" ca="1" si="1">E4*B4</f>
+        <v>0.44257923802243254</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G27" si="2">((C4*D4)/$A$1)*$A$2</f>
+        <v>0.34283242878315584</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H27" ca="1" si="3">F4*(D4*C4)</f>
+        <v>4.4257923802243253</v>
+      </c>
+      <c r="I4" s="8">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J27" ca="1" si="4">I4-F4</f>
+        <v>8.5574207619775677</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K27" si="5">I4*(D4*C4)</f>
+        <v>90</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L27" ca="1" si="6">K4-H4</f>
+        <v>85.574207619775677</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M27" ca="1" si="7">IF(K4&gt;0,L4/K4,0)</f>
+        <v>0.95082452910861859</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" ref="N4:N27" ca="1" si="8">INT(L4/(F4*C4))</f>
         <v>19</v>
-      </c>
-      <c r="B4" s="7">
-        <v>700</v>
-      </c>
-      <c r="C4" s="7">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f ca="1">VLOOKUP("sum", INDIRECT(CONCATENATE("'",A4,"'!$A2:E26")),5,FALSE)</f>
-        <v>1.9297551872136693E-3</v>
-      </c>
-      <c r="F4" s="2">
-        <f ca="1">E4*B4</f>
-        <v>1.3508286310495685</v>
-      </c>
-      <c r="G4" s="2">
-        <f>((C4*D4)/$A$1)*$A$2</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <f ca="1">F4*(D4*C4)</f>
-        <v>32.419887145189648</v>
-      </c>
-      <c r="I4" s="8">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2">
-        <f ca="1">I4-F4</f>
-        <v>3.6491713689504315</v>
-      </c>
-      <c r="K4" s="2">
-        <f>I4*(D4*C4)</f>
-        <v>120</v>
-      </c>
-      <c r="L4" s="2">
-        <f ca="1">K4-H4</f>
-        <v>87.580112854810352</v>
-      </c>
-      <c r="M4" s="3">
-        <f ca="1">IF(K4&gt;0,L4/K4,0)</f>
-        <v>0.72983427379008625</v>
-      </c>
-      <c r="N4" s="16">
-        <f ca="1">INT(L4/(F4*C4))</f>
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B5" s="7">
-        <v>550</v>
-      </c>
-      <c r="C5" s="7">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2</v>
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18">
+        <v>21.66</v>
       </c>
       <c r="E5">
-        <f ca="1">VLOOKUP("sum", INDIRECT(CONCATENATE("'",A5,"'!$A2:E26")),5,FALSE)</f>
-        <v>8.5563726986867864E-4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2203239056607925E-4</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">E5*B5</f>
-        <v>0.47060049842777324</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41101619528303962</v>
       </c>
       <c r="G5" s="2">
-        <f>((C5*D5)/$A$1)*$A$2</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>2.2277251222329468</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H7" ca="1" si="0">F5*(D5*C5)</f>
-        <v>22.588823924533116</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>26.707832369491918</v>
       </c>
       <c r="I5" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J7" ca="1" si="1">I5-F5</f>
-        <v>2.5293995015722266</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5889838047169604</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K7" si="2">I5*(D5*C5)</f>
-        <v>144</v>
+        <f t="shared" si="5"/>
+        <v>324.90000000000003</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ref="L5:L7" ca="1" si="3">K5-H5</f>
-        <v>121.41117607546688</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>298.1921676305081</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" ref="M5:M7" ca="1" si="4">IF(K5&gt;0,L5/K5,0)</f>
-        <v>0.84313316719074227</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91779676094339202</v>
       </c>
       <c r="N5" s="16">
-        <f t="shared" ref="N5:N7" ca="1" si="5">INT(L5/(F5*C5))</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B6" s="7">
-        <v>85</v>
-      </c>
-      <c r="C6" s="7">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E7" ca="1" si="6">VLOOKUP("sum", INDIRECT(CONCATENATE("'",A6,"'!$A2:E26")),5,FALSE)</f>
-        <v>2.1142699777480737E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8847840191440112E-4</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">E6*B6</f>
-        <v>0.17971294810858626</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44423920095720054</v>
       </c>
       <c r="G6" s="2">
-        <f>((C6*D6)/$A$1)*$A$2</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>2.228410787090513</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.754071697373803</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28.875548062218034</v>
       </c>
       <c r="I6" s="8">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.3202870518914138</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5557607990427993</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="2"/>
-        <v>560</v>
+        <f t="shared" si="5"/>
+        <v>325</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>531.24592830262623</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>296.12445193778194</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.94865344339754687</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91115215980855979</v>
       </c>
       <c r="N6" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>147</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="7">
+        <v>600</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>12.83</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8870309026618695E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59322185415971218</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>2.639124036772734</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>45.666218333214644</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4067781458402875</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>384.90000000000003</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>339.23378166678538</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.88135562916805754</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="7">
+        <v>110</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>3.23</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5246128981242241E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16770741879366466</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3152739758540486</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.001358209769766</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.9322925812063354</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="5"/>
+        <v>170.54400000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>144.54264179023025</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.84753871018757765</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5246128981242241E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.9099838378074567E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>27.975126188705516</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>80.86546811650885</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.55090016162192545</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>530.4</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>449.53453188349113</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.84753871018757754</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5246128981242241E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11434596735931681</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.645595658159148</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.4886064332472069</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.63565403264068321</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>30.511393566752794</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.84753871018757765</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7">
+        <v>380</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>27.71</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2203239056607925E-4</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3123723084151101</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>6.6499206211068742</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>60.590856663278906</v>
+      </c>
+      <c r="I11" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1876276915848898</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="5"/>
+        <v>678.89499999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>618.30414333672104</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91075076902425423</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="7">
+        <v>600</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2203239056607925E-4</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49321943433964754</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0284972863494675</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.796583030189426</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5067805656603523</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>105.20341696981058</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.87669514141508809</v>
+      </c>
+      <c r="N12" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="7">
+        <v>450</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5.4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4648003897531377E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2459160175388912</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.92564755771452079</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6397324735500627</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.7540839824611085</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>128.36026752644995</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.95081679649222184</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1800</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.314668510913766E-4</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95664033196447784</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0284972863494675</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>28.699209958934336</v>
+      </c>
+      <c r="I14" s="8">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0433596680355226</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>121.30079004106567</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.80867193360710443</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1300</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6236608661994507E-4</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73107591260592864</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2056994572698935</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.3864554756355716</v>
+      </c>
+      <c r="I15" s="8">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.2689240873940717</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>25.613544524364428</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.8537848174788143</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="7">
+        <v>350</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2203239056607925E-4</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28771133669812776</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.61709837180968052</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.1788040605662999</v>
+      </c>
+      <c r="I16" s="8">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.7122886633018721</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>84.821195939433693</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.94245773266037436</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="7">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8171244363105027E-3</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25439742108347041</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0569945726989349</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.263845265008225</v>
+      </c>
+      <c r="I17" s="8">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7456025789165297</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>164.73615473499177</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91520085963884312</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="7">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4648003897531377E-4</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1972005846297061E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.68566485756631168</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6394401169259412</v>
+      </c>
+      <c r="I18" s="8">
+        <v>3</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9180279941537028</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="C7" s="7">
+      <c r="L18" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>58.36055988307406</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.97267599805123439</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="7">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8171244363105027E-3</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36342488726210054</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3713297151326234</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.536995490484021</v>
+      </c>
+      <c r="I19" s="8">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.6365751127378996</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>145.46300450951597</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.90914377818447478</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="7">
+        <v>750</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6562836797710709E-4</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12422127598283031</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10284972863494675</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.37266382794849096</v>
+      </c>
+      <c r="I20" s="8">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8757787240171697</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>11.627336172051509</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.96894468100429243</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>700</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2489364710006217E-3</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87425552970043519</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82279782907957399</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>20.982132712810444</v>
+      </c>
+      <c r="I21" s="8">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1257444702995647</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>99.01786728718956</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.82514889405991299</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="7">
+        <v>550</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2203239056607925E-4</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45211781481134361</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0970637721060987</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.467770073962996</v>
+      </c>
+      <c r="I22" s="8">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5478821851886568</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>145.53222992603702</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.90957643703773139</v>
+      </c>
+      <c r="N22" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="7">
+        <v>450</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3721587804243924E-4</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42174714511909767</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.47996540029641821</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.9044600316673677</v>
+      </c>
+      <c r="I23" s="8">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5782528548809021</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>64.095539968332631</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.91565057097618041</v>
+      </c>
+      <c r="N23" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="7">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2728212578956718E-3</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11455391321061045</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.411398914539787</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3746469585273253</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.78544608678938954</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="5"/>
+        <v>10.8</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.4253530414726754</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.8727178742104329</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="7">
+        <v>675</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4101030540580684E-3</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95181956148919611</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8797924017785093</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>79.952843165092474</v>
+      </c>
+      <c r="I25" s="8">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.048180438510804</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>340.04715683490753</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.80963608770216078</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="7">
+        <v>70</v>
+      </c>
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="D7" s="7">
-        <v>12</v>
-      </c>
-      <c r="E7">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4101030540580684E-3</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.8707213784064787E-2</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>1.645595658159148</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.73794626163511</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9012927862159352</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5246128981242241E-3</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7" ca="1" si="7">E7*B7</f>
-        <v>9.1476773887453455E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <f>((C7*D7)/$A$1)*$A$2</f>
-        <v>36</v>
-      </c>
-      <c r="H7" s="2">
+        <v>91.262053738364884</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.9506463931079675</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="7">
+        <v>650</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>4.5</v>
+      </c>
+      <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>26.345310879586595</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="2">
+        <v>1.4738923597772675E-3</v>
+      </c>
+      <c r="F27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40852322611254654</v>
-      </c>
-      <c r="K7" s="2">
+        <v>0.95803003385522389</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="L7" s="2">
+        <v>0.61709837180968052</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>117.65468912041341</v>
-      </c>
-      <c r="M7" s="3">
+        <v>17.244540609394029</v>
+      </c>
+      <c r="I27" s="8">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81704645222509309</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>4.0419699661447765</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>72.755459390605978</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.80839399322895533</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>8.0191931525801089E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>8.7209302325581394E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.1535825454449999E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>2.9069767441860465E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8959492762623351E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.40697674418604651</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>172</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>8.0336441977972382E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>8.2203239056607925E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>0.55865921787709494</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>7.7055934203563048E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>8.3798882681564244E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">D3*C3</f>
+        <v>1.1084703788633519E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>2.7932960893854749E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8218060084755399E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>3.7456568898922384E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">B5/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>1.11731843575419E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="2">D5*C5</f>
+        <v>4.1850914970862999E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>5.6193936400994729E-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2.7932960893854747E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1.5696630279607465E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>B7/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>0.39106145251396646</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(B2:B7)</f>
+        <v>179</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM(C2:C7)</f>
+        <v>1.739869472778895E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D2:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(E2:E7)</f>
+        <v>9.8870309026618695E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>7.836938762748743E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>8.5227272727272721E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">D3*C3</f>
+        <v>1.1273647603212498E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>2.840909090909091E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8528595199836459E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>3.7456568898922384E-3</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5" si="1">D5*C5</f>
+        <v>8.5128565679369058E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>B6/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.39772727272727271</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>176</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM(C2:C6)</f>
+        <v>1.1779301087689476E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(E2:E6)</f>
+        <v>8.8847840191440112E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>8.0191931525801089E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>8.7209302325581394E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.1535825454449999E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>2.9069767441860465E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8959492762623351E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.40697674418604651</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>172</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>8.0336441977972382E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>8.2203239056607925E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A15:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>0.50251256281407031</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2" si="0">D2*C2</f>
+        <v>6.9311619208230072E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>9.2248290553584838E-3</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>1.0050251256281407E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">D3*C3</f>
+        <v>9.2711849802597825E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="2">B4/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>7.537688442211055E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="3">D4*C4</f>
+        <v>9.9706632068613053E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>2.5125628140703518E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1.6387099272217167E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>3.5479651376416469E-3</v>
+      </c>
+      <c r="D6">
+        <f>B6/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>0.12562814070351758</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.4572426352281993E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>B7/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>0.35175879396984927</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7" si="4">D7*C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(B2:B7)</f>
+        <v>199</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM(C2:C6)</f>
+        <v>2.080643839079737E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>0.64824120603015067</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(E2:E6)</f>
+        <v>1.2489364710006217E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>8.0191931525801089E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>8.7209302325581394E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.1535825454449999E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>2.9069767441860465E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8959492762623351E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.40697674418604651</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>172</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>8.0336441977972382E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>8.2203239056607925E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>8.0191931525801089E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f>B3/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>8.7209302325581394E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3*C3</f>
+        <v>1.1535825454449999E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>2.9069767441860465E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.8959492762623351E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5/VLOOKUP("sum",$A$1:$B$97,2,FALSE)</f>
+        <v>0.40697674418604651</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>172</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>8.0336441977972382E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(E2:E5)</f>
+        <v>8.2203239056607925E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>7.1838605325196805E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">B3/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">D3*C3</f>
+        <v>1.0334176969611458E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.6984545599850084E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>8.8183421516754845E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.3778659611992945E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>192</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(E2:E6)</f>
+        <v>2.1142699777480737E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>0.53475935828877008</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>7.3759423649399924E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">B3/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>8.0213903743315516E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="1">D3*C3</f>
+        <v>1.0610491861847059E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.6737967914438501E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.7438677835140195E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>8.8183421516754845E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8.0213903743315509E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>7.0735364853011912E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.32085561497326204</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.1437908496732027E-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.3475935828877004E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>6.1165286078780892E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(B2:B7)</f>
+        <v>187</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM(C2:C7)</f>
+        <v>1.7995777199145923E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D2:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(E2:E7)</f>
+        <v>1.5246128981242241E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3793012222437786E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>0.45045045045045046</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>6.2130685686656692E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">B3/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
+        <v>6.7567567567567571E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">D3*C3</f>
+        <v>8.9376665683126128E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.2522522522522522E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.468933673500548E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="7">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>1.1023122100918888E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.22522522522522523</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.4826851578646145E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$2:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.31531531531531531</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>222</v>
+      </c>
+      <c r="C7" s="4">
+        <f>SUM(C2:C6)</f>
+        <v>9.1359564078891276E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(E2:E6)</f>
+        <v>8.8515847604486513E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1302,11 +5545,11 @@
       </c>
       <c r="B3" s="16">
         <f ca="1">SUMIF(D3:AB3,"&lt;&gt;#N/A")</f>
-        <v>44724.735294359642</v>
+        <v>60416.048264578712</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">IFERROR(B3/VLOOKUP(A3,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>3.9440497446480225</v>
+        <v>2.6638939075018393</v>
       </c>
       <c r="D3">
         <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1314,19 +5557,19 @@
       </c>
       <c r="E3">
         <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>13228.346456692914</v>
+        <v>8442.2110552763806</v>
       </c>
       <c r="F3">
         <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>15172.413793103447</v>
+        <v>42853.837209302328</v>
       </c>
       <c r="G3">
         <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>7083.3333333333339</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>9240.6417112299459</v>
+        <v>9120.0000000000018</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,11 +5613,11 @@
       </c>
       <c r="B5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3511.0962566844919</v>
+        <v>1368</v>
       </c>
       <c r="C5" s="6">
         <f ca="1">IFERROR(B5/VLOOKUP(A5,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>3511.0962566844919</v>
+        <v>1368</v>
       </c>
       <c r="D5">
         <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1390,11 +5633,11 @@
       </c>
       <c r="G5">
         <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>2125</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>1386.0962566844919</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,11 +5647,11 @@
       </c>
       <c r="B6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>472.44583256500096</v>
+        <v>906.24072396868064</v>
       </c>
       <c r="C6" s="6">
         <f ca="1">IFERROR(B6/VLOOKUP(A6,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>2.0831312393737145E-2</v>
+        <v>3.9958408612527592E-2</v>
       </c>
       <c r="D6">
         <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1416,19 +5659,19 @@
       </c>
       <c r="E6">
         <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>0</v>
+        <v>126.63316582914572</v>
       </c>
       <c r="F6">
         <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>227.58620689655172</v>
+        <v>642.80755813953499</v>
       </c>
       <c r="G6">
         <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>106.25</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>138.60962566844921</v>
+        <v>136.80000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1438,11 +5681,11 @@
       </c>
       <c r="B7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>157.48194418833361</v>
+        <v>302.08024132289358</v>
       </c>
       <c r="C7" s="6">
         <f ca="1">IFERROR(B7/VLOOKUP(A7,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>1.3887541595824761E-2</v>
+        <v>6.6596173131149378E-2</v>
       </c>
       <c r="D7">
         <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1450,19 +5693,19 @@
       </c>
       <c r="E7">
         <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>0</v>
+        <v>42.211055276381913</v>
       </c>
       <c r="F7">
         <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>75.862068965517238</v>
+        <v>214.26918604651163</v>
       </c>
       <c r="G7">
         <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>35.416666666666664</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>46.203208556149733</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1472,11 +5715,11 @@
       </c>
       <c r="B8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>264.56692913385825</v>
+        <v>168.84422110552765</v>
       </c>
       <c r="C8" s="6">
         <f ca="1">IFERROR(B8/VLOOKUP(A8,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>2.2873333598509696E-2</v>
+        <v>1.4597554608094129E-2</v>
       </c>
       <c r="D8">
         <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1484,7 +5727,7 @@
       </c>
       <c r="E8">
         <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>264.56692913385825</v>
+        <v>168.84422110552765</v>
       </c>
       <c r="F8">
         <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1506,11 +5749,11 @@
       </c>
       <c r="B9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3307.0866141732286</v>
+        <v>2110.5527638190952</v>
       </c>
       <c r="C9" s="6">
         <f ca="1">IFERROR(B9/VLOOKUP(A9,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>0.14581767818538371</v>
+        <v>9.3059523264038838E-2</v>
       </c>
       <c r="D9">
         <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1518,7 +5761,7 @@
       </c>
       <c r="E9">
         <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>3307.0866141732286</v>
+        <v>2110.5527638190952</v>
       </c>
       <c r="F9">
         <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1540,11 +5783,11 @@
       </c>
       <c r="B10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>20415.074681910381</v>
+        <v>41379.233785205091</v>
       </c>
       <c r="C10" s="6">
         <f ca="1">IFERROR(B10/VLOOKUP(A10,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>1.8003028873446076</v>
+        <v>1.8245133858271352</v>
       </c>
       <c r="D10">
         <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1552,19 +5795,19 @@
       </c>
       <c r="E10">
         <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>0</v>
+        <v>5909.5477386934672</v>
       </c>
       <c r="F10">
         <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>10620.689655172413</v>
+        <v>29997.686046511626</v>
       </c>
       <c r="G10">
         <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>4250</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>5544.3850267379676</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1574,11 +5817,11 @@
       </c>
       <c r="B11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>303.44827586206895</v>
+        <v>0</v>
       </c>
       <c r="C11" s="6">
         <f ca="1">IFERROR(B11/VLOOKUP(A11,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>1.3379789584563616E-2</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1590,7 +5833,7 @@
       </c>
       <c r="F11">
         <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>303.44827586206895</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1608,11 +5851,11 @@
       </c>
       <c r="B12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>924.06417112299459</v>
+        <v>911.99999999999989</v>
       </c>
       <c r="C12" s="6">
         <f ca="1">IFERROR(B12/VLOOKUP(A12,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>2.0371785077667428</v>
+        <v>2.0105820105820102</v>
       </c>
       <c r="D12">
         <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
@@ -1632,7 +5875,7 @@
       </c>
       <c r="H12">
         <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>924.06417112299459</v>
+        <v>911.99999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,8 +5948,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>Ingredients!A15</f>
-        <v>Bread flour 13%</v>
+        <f>Ingredients!A16</f>
+        <v>whole wheat</v>
       </c>
       <c r="B15" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1739,7 +5982,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>Ingredients!A16</f>
+        <f>Ingredients!A17</f>
         <v>sugar</v>
       </c>
       <c r="B16" s="16">
@@ -1773,7 +6016,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>Ingredients!A17</f>
+        <f>Ingredients!A18</f>
         <v>sunflower seed oil</v>
       </c>
       <c r="B17" s="16">
@@ -1807,7 +6050,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>Ingredients!A18</f>
+        <f>Ingredients!A19</f>
         <v>cocoa powder</v>
       </c>
       <c r="B18" s="16">
@@ -1841,7 +6084,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>Ingredients!A19</f>
+        <f>Ingredients!A20</f>
         <v>pistachios</v>
       </c>
       <c r="B19" s="16">
@@ -1875,7 +6118,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>Ingredients!A20</f>
+        <f>Ingredients!A21</f>
         <v>coconut oil</v>
       </c>
       <c r="B20" s="16">
@@ -1909,7 +6152,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>Ingredients!A21</f>
+        <f>Ingredients!A22</f>
         <v>almonds</v>
       </c>
       <c r="B21" s="16">
@@ -2024,10 +6267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,7 +6354,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D21" si="0">IF(B5&gt;0,C5/B5,0)</f>
+        <f t="shared" ref="D5:D26" si="0">IF(B5&gt;0,C5/B5,0)</f>
         <v>8.8183421516754845E-3</v>
       </c>
     </row>
@@ -2261,107 +6504,182 @@
         <v>30.247800000000002</v>
       </c>
       <c r="D15">
+        <f t="shared" ref="D15" si="1">IF(B15&gt;0,C15/B15,0)</f>
+        <v>1.3337007707366975E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="7">
+        <v>22679.599999999999</v>
+      </c>
+      <c r="C16" s="8">
+        <v>30.247800000000002</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>1.3337007707366975E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>22679.599999999999</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C17" s="8">
         <v>44.595199999999998</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>1.9663133388595918E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="7">
         <v>11339.8</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <v>63.722799999999999</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>5.6193936400994729E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="7">
         <v>3000</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C19" s="8">
         <v>61.834600000000002</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>2.0611533333333334E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="7">
         <v>2721.55</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C20" s="8">
         <v>96.000100000000003</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>3.5274053388693945E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B21" s="7">
         <v>17236.5</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C21" s="8">
         <v>55.694899999999997</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>3.2312186348736689E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B22" s="7">
         <v>11339.8</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C22" s="8">
         <v>124.4567</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>1.0975211203019454E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="7">
+        <v>22679.599999999999</v>
+      </c>
+      <c r="C23" s="8">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.1023122100918888E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2268</v>
+      </c>
+      <c r="C24" s="8">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.3227513227513227E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2784</v>
+      </c>
+      <c r="C25" s="8">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>5.028735632183908E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4536</v>
+      </c>
+      <c r="C26" s="8">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>8.8183421516754845E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -2519,6 +6837,9 @@
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2566,7 +6887,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A2,Ingredients!$A$3:$D$80,4,FALSE)</f>
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
         <v>1.3793012222437786E-3</v>
       </c>
       <c r="D2">
@@ -2586,7 +6907,7 @@
         <v>1.5</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A3,Ingredients!$A$3:$D$80,4,FALSE)</f>
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
         <v>1.3227746521102666E-4</v>
       </c>
       <c r="D3">
@@ -2606,7 +6927,7 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A4,Ingredients!$A$3:$D$80,4,FALSE)</f>
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
         <v>6.5220655103424329E-3</v>
       </c>
       <c r="D4">
@@ -2626,7 +6947,7 @@
         <v>70</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(A5,Ingredients!$A$3:$D$80,4,FALSE)</f>
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D5">
@@ -2667,10 +6988,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,83 +7020,163 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A2,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>1.3793012222437786E-3</v>
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3337007707366975E-3</v>
       </c>
       <c r="D2">
-        <f>B2/VLOOKUP("sum",$A$1:$B$96,2,FALSE)</f>
-        <v>0.78740157480314965</v>
+        <f>B2/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>0.51813471502590669</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2" si="0">D2*C2</f>
-        <v>1.0860639545226603E-3</v>
+        <f>D2*C2</f>
+        <v>6.9103666877549084E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A3,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>9.2248290553584838E-3</v>
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>3.7456568898922384E-3</v>
       </c>
       <c r="D3">
-        <f>B3/VLOOKUP("sum",$A$1:$B$96,2,FALSE)</f>
-        <v>1.5748031496062992E-2</v>
+        <f t="shared" ref="D3:D6" si="0">B3/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>1.0362694300518135E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E4" si="1">D3*C3</f>
-        <v>1.4527289850958241E-4</v>
+        <f t="shared" ref="E3:E8" si="1">D3*C3</f>
+        <v>3.8815097304582781E-5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A4,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>3.5479651376416469E-3</v>
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
       </c>
       <c r="D4">
-        <f>B4/VLOOKUP("sum",$A$1:$B$96,2,FALSE)</f>
-        <v>0.19685039370078741</v>
+        <f t="shared" si="0"/>
+        <v>7.7720207253886009E-3</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>6.9841833418142658E-4</v>
+        <v>1.0280632011219689E-6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>8.8183421516754845E-3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>7.7720207253886009E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>6.8536337966389779E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.9663133388595918E-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.072538860103627E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.0752608059266152E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D7">
+        <f>B7/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>2.5906735751295338E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.6896542772907859E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>B8/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>0.36269430051813473</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
-        <f>SUM(B2:B4)</f>
-        <v>127</v>
-      </c>
-      <c r="C5" s="4">
-        <f>SUM(C2:C4)</f>
-        <v>1.4152095415243909E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <f>SUM(D2:D4)</f>
+      <c r="B9" s="4">
+        <f>SUM(B2:B8)</f>
+        <v>193</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM(C2:C8)</f>
+        <v>2.251835612671747E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(D2:D8)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="4">
-        <f>SUM(E2:E4)</f>
-        <v>1.9297551872136693E-3</v>
+      <c r="E9" s="4">
+        <f>SUM(E2:E8)</f>
+        <v>1.4738923597772675E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2786,10 +7187,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,123 +7219,163 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A2,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>1.3793012222437786E-3</v>
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3337007707366975E-3</v>
       </c>
       <c r="D2">
-        <f>B2/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
-        <v>0.57471264367816088</v>
+        <f>B2/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>0.3436426116838488</v>
       </c>
       <c r="E2">
         <f>D2*C2</f>
-        <v>7.9270185186424054E-4</v>
+        <v>4.5831641606072077E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7">
-        <v>1.5</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A3,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>1.3227746521102666E-4</v>
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3337007707366975E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
-        <v>8.6206896551724137E-3</v>
+        <f t="shared" ref="D3:D6" si="0">B3/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>0.3436426116838488</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="1">D3*C3</f>
-        <v>1.1403229759571264E-6</v>
+        <f t="shared" ref="E3:E8" si="1">D3*C3</f>
+        <v>4.5831641606072077E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A4,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>6.5220655103424329E-3</v>
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.8735632183908046E-3</v>
+        <v>5.1546391752577319E-3</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1.8741567558455266E-5</v>
+        <v>6.8184260418054978E-7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(A5,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>3.7456568898922384E-3</v>
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>8.8183421516754845E-3</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.1494252873563218E-2</v>
+        <v>5.1546391752577317E-2</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>4.3053527470025729E-5</v>
+        <v>4.545537191585301E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(A6,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.9663133388595918E-3</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.40229885057471265</v>
+        <v>1.3745704467353952E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7028362046179955E-5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D7">
+        <f>B7/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>1.718213058419244E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.1206298127736139E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>B8/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>0.24054982817869416</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
-        <f>SUM(B2:B6)</f>
-        <v>174</v>
-      </c>
-      <c r="C7" s="4">
-        <f>SUM(C2:C6)</f>
-        <v>1.1779301087689476E-2</v>
-      </c>
-      <c r="D7" s="4">
-        <f>SUM(D2:D6)</f>
+      <c r="B9" s="4">
+        <f>SUM(B2:B8)</f>
+        <v>291</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM(C2:C8)</f>
+        <v>2.010640000756193E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(D2:D8)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="4">
-        <f>SUM(E2:E6)</f>
-        <v>8.5563726986867864E-4</v>
+      <c r="E9" s="4">
+        <f>SUM(E2:E8)</f>
+        <v>1.4101030540580684E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2945,10 +7386,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C2" sqref="C2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,62 +7418,62 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A2,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>1.3793012222437786E-3</v>
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3337007707366975E-3</v>
       </c>
       <c r="D2">
-        <f>B2/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
-        <v>0.52083333333333337</v>
+        <f>B2/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>0.3436426116838488</v>
       </c>
       <c r="E2">
         <f>D2*C2</f>
-        <v>7.1838605325196805E-4</v>
+        <v>4.5831641606072077E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7">
-        <v>1.5</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A3,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>1.3227746521102666E-4</v>
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3337007707366975E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3/VLOOKUP("sum",$A$1:$B$98,2,FALSE)</f>
-        <v>7.8125E-3</v>
+        <f t="shared" ref="D3:D6" si="0">B3/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>0.3436426116838488</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="1">D3*C3</f>
-        <v>1.0334176969611458E-6</v>
+        <v>4.5831641606072077E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A4,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>6.5220655103424329E-3</v>
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.3227746521102666E-4</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.6041666666666665E-3</v>
+        <v>5.1546391752577319E-3</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1.6984545599850084E-5</v>
+        <v>6.8184260418054978E-7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3040,57 +7481,100 @@
         <v>29</v>
       </c>
       <c r="B5" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(A5,Ingredients!$A$2:$D$80,4,FALSE)</f>
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
         <v>8.8183421516754845E-3</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.15625</v>
+        <v>5.1546391752577317E-2</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>1.3778659611992945E-3</v>
+        <v>4.545537191585301E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(A6,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.9663133388595918E-3</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>1.3745704467353952E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.7028362046179955E-5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>6.5220655103424329E-3</v>
+      </c>
+      <c r="D7">
+        <f>B7/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>1.718213058419244E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E4:E8" si="2">D7*C7</f>
+        <v>1.1206298127736139E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>B8/VLOOKUP("sum",$A$1:$B$100,2,FALSE)</f>
+        <v>0.24054982817869416</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
-        <f>SUM(B2:B6)</f>
-        <v>192</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <f>SUM(D2:D6)</f>
+      <c r="B9" s="4">
+        <f>SUM(B2:B8)</f>
+        <v>291</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM(C2:C8)</f>
+        <v>2.010640000756193E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(D2:D8)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="4">
-        <f>SUM(E2:E6)</f>
-        <v>2.1142699777480737E-3</v>
+      <c r="E9" s="4">
+        <f>SUM(E2:E8)</f>
+        <v>1.4101030540580684E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +7588,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,16 +7623,16 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(A2,Ingredients!$A$2:$D$80,4,FALSE)</f>
+        <f>VLOOKUP(A2,Ingredients!$A$3:$D$81,4,FALSE)</f>
         <v>1.3793012222437786E-3</v>
       </c>
       <c r="D2">
         <f>B2/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
-        <v>0.53475935828877008</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="E2">
         <f>D2*C2</f>
-        <v>7.3759423649399924E-4</v>
+        <v>7.4556822823988039E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3159,16 +7643,16 @@
         <v>1.5</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(A3,Ingredients!$A$2:$D$80,4,FALSE)</f>
+        <f>VLOOKUP(A3,Ingredients!$A$3:$D$81,4,FALSE)</f>
         <v>1.3227746521102666E-4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">B3/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
-        <v>8.0213903743315516E-3</v>
+        <f>B3/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>8.1081081081081086E-3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">D3*C3</f>
-        <v>1.0610491861847059E-6</v>
+        <f t="shared" ref="E3:E7" si="0">D3*C3</f>
+        <v>1.0725199881975135E-6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,16 +7663,16 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(A4,Ingredients!$A$2:$D$80,4,FALSE)</f>
+        <f>VLOOKUP(A4,Ingredients!$A$3:$D$81,4,FALSE)</f>
         <v>6.5220655103424329E-3</v>
       </c>
       <c r="D4">
+        <f>B4/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>2.7027027027027029E-3</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.6737967914438501E-3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>1.7438677835140195E-5</v>
+        <v>1.7627204082006576E-5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,59 +7680,59 @@
         <v>29</v>
       </c>
       <c r="B5" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(A5,Ingredients!$A$2:$D$80,4,FALSE)</f>
+        <f>VLOOKUP(A5,Ingredients!$A$3:$D$81,4,FALSE)</f>
         <v>8.8183421516754845E-3</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>8.0213903743315509E-2</v>
+        <f t="shared" ref="D5:D6" si="1">B5/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>7.0735364853011912E-4</v>
+        <f t="shared" ref="E5:E6" si="2">D5*C5</f>
+        <v>4.7666714333381E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(A6,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(A6,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>1.9663133388595918E-3</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.32085561497326204</v>
+        <f t="shared" si="1"/>
+        <v>1.6216216216216217E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.1886162251777165E-5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(A7,Ingredients!$A$2:$D$80,4,FALSE)</f>
-        <v>1.1437908496732027E-3</v>
+        <f>VLOOKUP(A7,Ingredients!$A$3:$D$81,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="D7">
+        <f>B7/VLOOKUP("sum",$A$1:$B$99,2,FALSE)</f>
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>5.3475935828877004E-2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>6.1165286078780892E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,11 +7741,11 @@
       </c>
       <c r="B8" s="4">
         <f>SUM(B2:B7)</f>
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="4">
         <f>SUM(C2:C7)</f>
-        <v>1.7995777199145923E-2</v>
+        <v>1.8818299688332311E-2</v>
       </c>
       <c r="D8" s="4">
         <f>SUM(D2:D7)</f>
@@ -3269,7 +7753,7 @@
       </c>
       <c r="E8" s="4">
         <f>SUM(E2:E7)</f>
-        <v>1.5246128981242241E-3</v>
+        <v>1.2728212578956718E-3</v>
       </c>
     </row>
   </sheetData>

--- a/costing_bakery.xlsx
+++ b/costing_bakery.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -80,9 +80,6 @@
     <t>fennel seeds</t>
   </si>
   <si>
-    <t>Cost total</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
@@ -104,15 +101,6 @@
     <t>Fennel Raisin</t>
   </si>
   <si>
-    <t>Cost Per Unit</t>
-  </si>
-  <si>
-    <t>Gross Revenue</t>
-  </si>
-  <si>
-    <t>Net Revenue</t>
-  </si>
-  <si>
     <t>Margin</t>
   </si>
   <si>
@@ -257,9 +245,6 @@
     <t>Chocolate chips 2m</t>
   </si>
   <si>
-    <t>Max overproduction</t>
-  </si>
-  <si>
     <t>Basic loaf</t>
   </si>
   <si>
@@ -296,9 +281,6 @@
     <t>Total cost of hours of labor for this time period</t>
   </si>
   <si>
-    <t>Labor cost</t>
-  </si>
-  <si>
     <t>Total units made</t>
   </si>
   <si>
@@ -384,6 +366,51 @@
   </si>
   <si>
     <t>Dealers Choice</t>
+  </si>
+  <si>
+    <t>Unit ingr. Cost</t>
+  </si>
+  <si>
+    <t>Total gross Revenue</t>
+  </si>
+  <si>
+    <t>Total net Revenue</t>
+  </si>
+  <si>
+    <t>Batch net profit</t>
+  </si>
+  <si>
+    <t>Batch gross profit</t>
+  </si>
+  <si>
+    <t>Per unit</t>
+  </si>
+  <si>
+    <t>Per batch</t>
+  </si>
+  <si>
+    <t>Min unit sale per batch</t>
+  </si>
+  <si>
+    <t>Per-unit cost</t>
+  </si>
+  <si>
+    <t>Batch labor cost</t>
+  </si>
+  <si>
+    <t>Batch ingr. cost</t>
+  </si>
+  <si>
+    <t>Unit ingr, labor cost</t>
+  </si>
+  <si>
+    <t>Per product line</t>
+  </si>
+  <si>
+    <t>Max batch overrun</t>
+  </si>
+  <si>
+    <t>Batch ingr, labor cost</t>
   </si>
 </sst>
 </file>
@@ -424,7 +451,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +461,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -484,9 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -498,6 +540,30 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,12 +875,12 @@
   <sheetData>
     <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -822,37 +888,37 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,12 +942,12 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,12 +995,12 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,7 +1022,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,12 +1046,12 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -993,23 +1059,23 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1043,19 +1109,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,7 +1146,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>120</v>
@@ -1160,7 +1226,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
@@ -1202,19 +1268,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1299,7 +1365,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -1341,19 +1407,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,7 +1484,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B5" s="7">
         <v>15</v>
@@ -1458,7 +1524,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
@@ -1500,19 +1566,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1577,7 +1643,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B5" s="7">
         <v>15</v>
@@ -1617,7 +1683,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
@@ -1659,19 +1725,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,7 +1822,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -1798,24 +1864,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -1895,7 +1961,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -1937,24 +2003,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -2034,7 +2100,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7">
         <v>12</v>
@@ -2054,7 +2120,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7">
         <v>400</v>
@@ -2074,7 +2140,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B2:B7)</f>
@@ -2116,24 +2182,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -2213,7 +2279,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7">
         <v>10</v>
@@ -2233,7 +2299,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
@@ -2275,24 +2341,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -2372,7 +2438,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -2414,24 +2480,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -2511,7 +2577,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -2538,1358 +2604,1890 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f>SUMPRODUCT(C:C,D:D)</f>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="8">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>SUMPRODUCT(D:D,E:E)</f>
         <v>1895.97</v>
       </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>65</v>
-      </c>
       <c r="B2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <f>A1/A2</f>
+        <v>3.4283242878315585E-2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="C4" s="27"/>
+      <c r="G4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="20"/>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="1:19" s="14" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="7">
+        <v>500</v>
+      </c>
+      <c r="C6" s="8">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F29" ca="1" si="0">VLOOKUP("sum", INDIRECT(CONCATENATE("'",A6,"'!$A2:E26")),5,FALSE)</f>
+        <v>8.8515847604486513E-4</v>
+      </c>
+      <c r="G6" s="2">
+        <f ca="1">F6*B6</f>
+        <v>0.44257923802243254</v>
+      </c>
+      <c r="H6" s="2">
+        <f ca="1">G6+$A$3</f>
+        <v>0.47686248090074812</v>
+      </c>
+      <c r="I6" s="2">
+        <f ca="1">C6-H6</f>
+        <v>8.5231375190992527</v>
+      </c>
+      <c r="J6" s="2">
+        <f ca="1">G6*D6</f>
+        <v>4.4257923802243253</v>
+      </c>
+      <c r="K6" s="2">
+        <f>D6*$A$3</f>
+        <v>0.34283242878315584</v>
+      </c>
+      <c r="L6" s="2">
+        <f ca="1">J6+K6</f>
+        <v>4.7686248090074814</v>
+      </c>
+      <c r="M6" s="2">
+        <f>C6*D6</f>
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
+        <f ca="1">M6-(J6+K6)</f>
+        <v>85.231375190992523</v>
+      </c>
+      <c r="O6" s="17">
+        <f ca="1">ROUNDUP((J6+K6)/C6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="15">
+        <f ca="1">INT(R6/L6)</f>
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="Q6" s="2">
+        <f>C6*(E6*D6)</f>
+        <v>90</v>
+      </c>
+      <c r="R6" s="2">
+        <f ca="1">Q6-((J6+K6)*E6)</f>
+        <v>85.231375190992523</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" ref="S6:S29" ca="1" si="1">IF(Q6&gt;0,R6/Q6,0)</f>
+        <v>0.94701527989991696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="7">
         <v>500</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E27" ca="1" si="0">VLOOKUP("sum", INDIRECT(CONCATENATE("'",A4,"'!$A2:E26")),5,FALSE)</f>
-        <v>8.8515847604486513E-4</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F27" ca="1" si="1">E4*B4</f>
-        <v>0.44257923802243254</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G27" si="2">((C4*D4)/$A$1)*$A$2</f>
-        <v>0.34283242878315584</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H27" ca="1" si="3">F4*(D4*C4)</f>
-        <v>4.4257923802243253</v>
-      </c>
-      <c r="I4" s="8">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J27" ca="1" si="4">I4-F4</f>
-        <v>8.5574207619775677</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" ref="K4:K27" si="5">I4*(D4*C4)</f>
-        <v>90</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" ref="L4:L27" ca="1" si="6">K4-H4</f>
-        <v>85.574207619775677</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" ref="M4:M27" ca="1" si="7">IF(K4&gt;0,L4/K4,0)</f>
-        <v>0.95082452910861859</v>
-      </c>
-      <c r="N4" s="16">
-        <f t="shared" ref="N4:N27" ca="1" si="8">INT(L4/(F4*C4))</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="7">
-        <v>500</v>
-      </c>
-      <c r="C5">
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="18">
+      <c r="E7" s="29">
         <v>21.66</v>
       </c>
-      <c r="E5">
+      <c r="F7">
         <f t="shared" ca="1" si="0"/>
         <v>8.2203239056607925E-4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G7" s="2">
+        <f t="shared" ref="G7:G29" ca="1" si="2">F7*B7</f>
+        <v>0.41101619528303962</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H29" ca="1" si="3">G7+$A$3</f>
+        <v>0.4452994381613552</v>
+      </c>
+      <c r="I7" s="2">
+        <f ca="1">C7-H7</f>
+        <v>4.5547005618386445</v>
+      </c>
+      <c r="J7" s="2">
+        <f ca="1">G7*D7</f>
+        <v>1.2330485858491189</v>
+      </c>
+      <c r="K7" s="2">
+        <f>D7*$A$3</f>
+        <v>0.10284972863494676</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:L29" ca="1" si="4">J7+K7</f>
+        <v>1.3358983144840657</v>
+      </c>
+      <c r="M7" s="2">
+        <f>C7*D7</f>
+        <v>15</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N29" ca="1" si="5">M7-(J7+K7)</f>
+        <v>13.664101685515934</v>
+      </c>
+      <c r="O7" s="17">
+        <f ca="1">ROUNDUP((J7+K7)/C7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" ref="P7:P29" ca="1" si="6">INT(R7/L7)</f>
+        <v>242</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>C7*(E7*D7)</f>
+        <v>324.90000000000003</v>
+      </c>
+      <c r="R7" s="2">
+        <f ca="1">Q7-J7</f>
+        <v>323.6669514141509</v>
+      </c>
+      <c r="S7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41101619528303962</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>2.2277251222329468</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>26.707832369491918</v>
-      </c>
-      <c r="I5" s="8">
+        <v>0.99620483660865145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="7">
+        <v>500</v>
+      </c>
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5889838047169604</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="5"/>
-        <v>324.90000000000003</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>298.1921676305081</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.91779676094339202</v>
-      </c>
-      <c r="N5" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="7">
-        <v>500</v>
-      </c>
-      <c r="C6">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E8" s="7">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="F8">
         <f t="shared" ca="1" si="0"/>
         <v>8.8847840191440112E-4</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44423920095720054</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.47852244383551612</v>
+      </c>
+      <c r="I8" s="2">
+        <f ca="1">C8-H8</f>
+        <v>4.5214775561644842</v>
+      </c>
+      <c r="J8" s="2">
+        <f ca="1">G8*D8</f>
+        <v>2.2211960047860027</v>
+      </c>
+      <c r="K8" s="2">
+        <f>D8*$A$3</f>
+        <v>0.17141621439157792</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.3926122191775807</v>
+      </c>
+      <c r="M8" s="2">
+        <f>C8*D8</f>
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.607387780822421</v>
+      </c>
+      <c r="O8" s="17">
+        <f ca="1">ROUNDUP((J8+K8)/C8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>C8*(E8*D8)</f>
+        <v>325</v>
+      </c>
+      <c r="R8" s="2">
+        <f ca="1">Q8-J8</f>
+        <v>322.77880399521399</v>
+      </c>
+      <c r="S8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44423920095720054</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="2"/>
-        <v>2.228410787090513</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>28.875548062218034</v>
-      </c>
-      <c r="I6" s="8">
+        <v>0.99316555075450463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="7">
+        <v>600</v>
+      </c>
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5557607990427993</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="5"/>
-        <v>325</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>296.12445193778194</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.91115215980855979</v>
-      </c>
-      <c r="N6" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="7">
-        <v>600</v>
-      </c>
-      <c r="C7">
+      <c r="D9" s="7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E9" s="7">
         <v>12.83</v>
       </c>
-      <c r="E7">
+      <c r="F9">
         <f t="shared" ca="1" si="0"/>
         <v>9.8870309026618695E-4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59322185415971218</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62750509703802781</v>
+      </c>
+      <c r="I9" s="2">
+        <f ca="1">C9-H9</f>
+        <v>4.3724949029619724</v>
+      </c>
+      <c r="J9" s="2">
+        <f ca="1">G9*D9</f>
+        <v>3.5593311249582733</v>
+      </c>
+      <c r="K9" s="2">
+        <f>D9*$A$3</f>
+        <v>0.20569945726989353</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7650305822281669</v>
+      </c>
+      <c r="M9" s="2">
+        <f>C9*D9</f>
+        <v>30</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>26.234969417771833</v>
+      </c>
+      <c r="O9" s="17">
+        <f ca="1">ROUNDUP((J9+K9)/C9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>C9*(E9*D9)</f>
+        <v>384.90000000000003</v>
+      </c>
+      <c r="R9" s="2">
+        <f ca="1">Q9-J9</f>
+        <v>381.34066887504179</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59322185415971218</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="2"/>
-        <v>2.639124036772734</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>45.666218333214644</v>
-      </c>
-      <c r="I7" s="8">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.4067781458402875</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="5"/>
-        <v>384.90000000000003</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>339.23378166678538</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.88135562916805754</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7">
+        <v>0.99075258216430695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7">
         <v>110</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="7">
         <v>48</v>
       </c>
-      <c r="D8">
+      <c r="E10" s="7">
         <v>3.23</v>
       </c>
-      <c r="E8">
+      <c r="F10">
         <f t="shared" ca="1" si="0"/>
         <v>1.5246128981242241E-3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16770741879366466</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20199066167198024</v>
+      </c>
+      <c r="I10" s="2">
+        <f ca="1">C10-H10</f>
+        <v>0.89800933832801988</v>
+      </c>
+      <c r="J10" s="2">
+        <f ca="1">G10*D10</f>
+        <v>8.0499561020959032</v>
+      </c>
+      <c r="K10" s="2">
+        <f>D10*$A$3</f>
+        <v>1.6455956581591482</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.6955517602550518</v>
+      </c>
+      <c r="M10" s="2">
+        <f>C10*D10</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>43.104448239744954</v>
+      </c>
+      <c r="O10" s="17">
+        <f ca="1">ROUNDUP((J10+K10)/C10,0)</f>
+        <v>9</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>C10*(E10*D10)</f>
+        <v>170.54400000000001</v>
+      </c>
+      <c r="R10" s="2">
+        <f ca="1">Q10-J10</f>
+        <v>162.49404389790411</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16770741879366466</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3152739758540486</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>26.001358209769766</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.9322925812063354</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="5"/>
-        <v>170.54400000000001</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>144.54264179023025</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.84753871018757765</v>
-      </c>
-      <c r="N8" s="16">
-        <f t="shared" ca="1" si="8"/>
+        <v>0.95279836228717574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="D11" s="7">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="7">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>48</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-      <c r="E9">
+      <c r="F11">
         <f t="shared" ca="1" si="0"/>
         <v>1.5246128981242241E-3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9099838378074567E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13338308125639015</v>
+      </c>
+      <c r="I11" s="2">
+        <f ca="1">C11-H11</f>
+        <v>0.51661691874360982</v>
+      </c>
+      <c r="J11" s="2">
+        <f ca="1">G11*D11</f>
+        <v>4.7567922421475792</v>
+      </c>
+      <c r="K11" s="2">
+        <f>D11*$A$3</f>
+        <v>1.6455956581591482</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.4023879003067279</v>
+      </c>
+      <c r="M11" s="2">
+        <f>C11*D11</f>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.797612099693275</v>
+      </c>
+      <c r="O11" s="17">
+        <f ca="1">ROUNDUP((J11+K11)/C11,0)</f>
+        <v>10</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>C11*(E11*D11)</f>
+        <v>530.4</v>
+      </c>
+      <c r="R11" s="2">
+        <f ca="1">Q11-J11</f>
+        <v>525.64320775785245</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9099838378074567E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>27.975126188705516</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>80.86546811650885</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.55090016162192545</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="5"/>
-        <v>530.4</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>449.53453188349113</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.84753871018757754</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="7">
+        <v>0.9910316888345635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7">
         <v>75</v>
       </c>
-      <c r="C10">
+      <c r="C12" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="7">
         <v>48</v>
       </c>
-      <c r="D10">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="F12">
         <f t="shared" ca="1" si="0"/>
         <v>1.5246128981242241E-3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11434596735931681</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1486292102376324</v>
+      </c>
+      <c r="I12" s="2">
+        <f ca="1">C12-H12</f>
+        <v>0.60137078976236757</v>
+      </c>
+      <c r="J12" s="2">
+        <f ca="1">G12*D12</f>
+        <v>5.4886064332472069</v>
+      </c>
+      <c r="K12" s="2">
+        <f>D12*$A$3</f>
+        <v>1.6455956581591482</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.1342020914063546</v>
+      </c>
+      <c r="M12" s="2">
+        <f>C12*D12</f>
+        <v>36</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>28.865797908593645</v>
+      </c>
+      <c r="O12" s="17">
+        <f ca="1">ROUNDUP((J12+K12)/C12,0)</f>
+        <v>10</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>C12*(E12*D12)</f>
+        <v>36</v>
+      </c>
+      <c r="R12" s="2">
+        <f ca="1">Q12-J12</f>
+        <v>30.511393566752794</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11434596735931681</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>1.645595658159148</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.4886064332472069</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.63565403264068321</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>30.511393566752794</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" ca="1" si="7"/>
         <v>0.84753871018757765</v>
       </c>
-      <c r="N10" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7">
         <v>380</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="7">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="E13" s="7">
         <v>27.71</v>
       </c>
-      <c r="E11">
+      <c r="F13">
         <f t="shared" ca="1" si="0"/>
         <v>8.2203239056607925E-4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3123723084151101</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34665555129342568</v>
+      </c>
+      <c r="I13" s="2">
+        <f ca="1">C13-H13</f>
+        <v>3.1533444487065743</v>
+      </c>
+      <c r="J13" s="2">
+        <f ca="1">G13*D13</f>
+        <v>2.1866061589057706</v>
+      </c>
+      <c r="K13" s="2">
+        <f>D13*$A$3</f>
+        <v>0.2399827001482091</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4265888590539797</v>
+      </c>
+      <c r="M13" s="2">
+        <f>C13*D13</f>
+        <v>24.5</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.073411140946021</v>
+      </c>
+      <c r="O13" s="17">
+        <f ca="1">ROUNDUP((J13+K13)/C13,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P13" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>278</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>C13*(E13*D13)</f>
+        <v>678.89499999999998</v>
+      </c>
+      <c r="R13" s="2">
+        <f ca="1">Q13-J13</f>
+        <v>676.70839384109422</v>
+      </c>
+      <c r="S13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3123723084151101</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>6.6499206211068742</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>60.590856663278906</v>
-      </c>
-      <c r="I11" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.1876276915848898</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="5"/>
-        <v>678.89499999999998</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>618.30414333672104</v>
-      </c>
-      <c r="M11" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.91075076902425423</v>
-      </c>
-      <c r="N11" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="7">
+        <v>0.996779168856884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="7">
         <v>600</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="E14" s="7">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="F14">
         <f t="shared" ca="1" si="0"/>
         <v>8.2203239056607925E-4</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49321943433964754</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.52750267721796318</v>
+      </c>
+      <c r="I14" s="2">
+        <f ca="1">C14-H14</f>
+        <v>3.4724973227820368</v>
+      </c>
+      <c r="J14" s="2">
+        <f ca="1">G14*D14</f>
+        <v>2.959316606037885</v>
+      </c>
+      <c r="K14" s="2">
+        <f>D14*$A$3</f>
+        <v>0.20569945726989353</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1650160633077786</v>
+      </c>
+      <c r="M14" s="2">
+        <f>C14*D14</f>
+        <v>24</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>20.834983936692222</v>
+      </c>
+      <c r="O14" s="17">
+        <f ca="1">ROUNDUP((J14+K14)/C14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>C14*(E14*D14)</f>
+        <v>120</v>
+      </c>
+      <c r="R14" s="2">
+        <f ca="1">Q14-J14</f>
+        <v>117.04068339396211</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49321943433964754</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0284972863494675</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.796583030189426</v>
-      </c>
-      <c r="I12" s="8">
-        <v>4</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.5067805656603523</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>105.20341696981058</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.87669514141508809</v>
-      </c>
-      <c r="N12" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="7">
+        <v>0.97533902828301755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="7">
         <v>450</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="8">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
         <v>5.4</v>
       </c>
-      <c r="E13">
+      <c r="F15">
         <f t="shared" ca="1" si="0"/>
         <v>5.4648003897531377E-4</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2459160175388912</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28019926041720677</v>
+      </c>
+      <c r="I15" s="2">
+        <f ca="1">C15-H15</f>
+        <v>4.7198007395827934</v>
+      </c>
+      <c r="J15" s="2">
+        <f ca="1">G15*D15</f>
+        <v>1.229580087694456</v>
+      </c>
+      <c r="K15" s="2">
+        <f>D15*$A$3</f>
+        <v>0.17141621439157792</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4009963020860339</v>
+      </c>
+      <c r="M15" s="2">
+        <f>C15*D15</f>
+        <v>25</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>23.599003697913965</v>
+      </c>
+      <c r="O15" s="17">
+        <f ca="1">ROUNDUP((J15+K15)/C15,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>C15*(E15*D15)</f>
+        <v>135</v>
+      </c>
+      <c r="R15" s="2">
+        <f ca="1">Q15-J15</f>
+        <v>133.77041991230556</v>
+      </c>
+      <c r="S15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2459160175388912</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.92564755771452079</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6397324735500627</v>
-      </c>
-      <c r="I13" s="8">
+        <v>0.9908919993504115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1800</v>
+      </c>
+      <c r="C16" s="8">
         <v>5</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7540839824611085</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="5"/>
-        <v>135</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>128.36026752644995</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.95081679649222184</v>
-      </c>
-      <c r="N13" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1800</v>
-      </c>
-      <c r="C14">
+      <c r="D16" s="7">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="E16" s="7">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="F16">
         <f t="shared" ca="1" si="0"/>
         <v>5.314668510913766E-4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.95664033196447784</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99092357484279348</v>
+      </c>
+      <c r="I16" s="2">
+        <f ca="1">C16-H16</f>
+        <v>4.0090764251572066</v>
+      </c>
+      <c r="J16" s="2">
+        <f ca="1">G16*D16</f>
+        <v>4.7832016598223888</v>
+      </c>
+      <c r="K16" s="2">
+        <f>D16*$A$3</f>
+        <v>0.17141621439157792</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.9546178742139668</v>
+      </c>
+      <c r="M16" s="2">
+        <f>C16*D16</f>
+        <v>25</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>20.045382125786034</v>
+      </c>
+      <c r="O16" s="17">
+        <f ca="1">ROUNDUP((J16+K16)/C16,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>C16*(E16*D16)</f>
+        <v>150</v>
+      </c>
+      <c r="R16" s="2">
+        <f ca="1">Q16-J16</f>
+        <v>145.2167983401776</v>
+      </c>
+      <c r="S16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95664033196447784</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0284972863494675</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>28.699209958934336</v>
-      </c>
-      <c r="I14" s="8">
+        <v>0.96811198893451733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1300</v>
+      </c>
+      <c r="C17" s="8">
         <v>5</v>
       </c>
-      <c r="J14" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.0433596680355226</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>121.30079004106567</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.80867193360710443</v>
-      </c>
-      <c r="N14" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1300</v>
-      </c>
-      <c r="C15">
+      <c r="D17" s="7">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="F17">
         <f t="shared" ca="1" si="0"/>
         <v>5.6236608661994507E-4</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G17" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73107591260592864</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.76535915548424427</v>
+      </c>
+      <c r="I17" s="2">
+        <f ca="1">C17-H17</f>
+        <v>4.2346408445157557</v>
+      </c>
+      <c r="J17" s="2">
+        <f ca="1">G17*D17</f>
+        <v>4.3864554756355716</v>
+      </c>
+      <c r="K17" s="2">
+        <f>D17*$A$3</f>
+        <v>0.20569945726989353</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5921549329054647</v>
+      </c>
+      <c r="M17" s="2">
+        <f>C17*D17</f>
+        <v>30</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>25.407845067094534</v>
+      </c>
+      <c r="O17" s="17">
+        <f ca="1">ROUNDUP((J17+K17)/C17,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>C17*(E17*D17)</f>
+        <v>30</v>
+      </c>
+      <c r="R17" s="2">
+        <f ca="1">Q17-J17</f>
+        <v>25.613544524364428</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73107591260592864</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.2056994572698935</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.3864554756355716</v>
-      </c>
-      <c r="I15" s="8">
+        <v>0.8537848174788143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="7">
+        <v>350</v>
+      </c>
+      <c r="C18" s="8">
         <v>5</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.2689240873940717</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>25.613544524364428</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.8537848174788143</v>
-      </c>
-      <c r="N15" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="7">
-        <v>350</v>
-      </c>
-      <c r="C16">
+      <c r="D18" s="7">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="F18">
         <f t="shared" ca="1" si="0"/>
         <v>8.2203239056607925E-4</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G18" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28771133669812776</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.32199457957644334</v>
+      </c>
+      <c r="I18" s="2">
+        <f ca="1">C18-H18</f>
+        <v>4.678005420423557</v>
+      </c>
+      <c r="J18" s="2">
+        <f ca="1">G18*D18</f>
+        <v>1.7262680201887666</v>
+      </c>
+      <c r="K18" s="2">
+        <f>D18*$A$3</f>
+        <v>0.20569945726989353</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9319674774586602</v>
+      </c>
+      <c r="M18" s="2">
+        <f>C18*D18</f>
+        <v>30</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>28.068032522541341</v>
+      </c>
+      <c r="O18" s="17">
+        <f ca="1">ROUNDUP((J18+K18)/C18,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>C18*(E18*D18)</f>
+        <v>90</v>
+      </c>
+      <c r="R18" s="2">
+        <f ca="1">Q18-J18</f>
+        <v>88.273731979811231</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28771133669812776</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.61709837180968052</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.1788040605662999</v>
-      </c>
-      <c r="I16" s="8">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.7122886633018721</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>84.821195939433693</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.94245773266037436</v>
-      </c>
-      <c r="N16" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="7">
+        <v>0.98081924422012479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="7">
         <v>140</v>
       </c>
-      <c r="C17">
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="E19" s="7">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="F19">
         <f t="shared" ca="1" si="0"/>
         <v>1.8171244363105027E-3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G19" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25439742108347041</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28868066396178599</v>
+      </c>
+      <c r="I19" s="2">
+        <f ca="1">C19-H19</f>
+        <v>2.7113193360382142</v>
+      </c>
+      <c r="J19" s="2">
+        <f ca="1">G19*D19</f>
+        <v>3.8159613162520563</v>
+      </c>
+      <c r="K19" s="2">
+        <f>D19*$A$3</f>
+        <v>0.51424864317473373</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.3302099594267904</v>
+      </c>
+      <c r="M19" s="2">
+        <f>C19*D19</f>
+        <v>45</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>40.669790040573211</v>
+      </c>
+      <c r="O19" s="17">
+        <f ca="1">ROUNDUP((J19+K19)/C19,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P19" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>C19*(E19*D19)</f>
+        <v>180</v>
+      </c>
+      <c r="R19" s="2">
+        <f ca="1">Q19-J19</f>
+        <v>176.18403868374796</v>
+      </c>
+      <c r="S19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25439742108347041</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>2.0569945726989349</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>15.263845265008225</v>
-      </c>
-      <c r="I17" s="8">
+        <v>0.97880021490971092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="7">
+        <v>150</v>
+      </c>
+      <c r="C20" s="8">
         <v>3</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7456025789165297</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>164.73615473499177</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.91520085963884312</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="7">
-        <v>150</v>
-      </c>
-      <c r="C18">
+      <c r="D20" s="7">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="F20">
         <f t="shared" ca="1" si="0"/>
         <v>5.4648003897531377E-4</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G20" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1972005846297061E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11625524872461265</v>
+      </c>
+      <c r="I20" s="2">
+        <f ca="1">C20-H20</f>
+        <v>2.8837447512753873</v>
+      </c>
+      <c r="J20" s="2">
+        <f ca="1">G20*D20</f>
+        <v>0.81972005846297058</v>
+      </c>
+      <c r="K20" s="2">
+        <f>D20*$A$3</f>
+        <v>0.34283242878315584</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1625524872461264</v>
+      </c>
+      <c r="M20" s="2">
+        <f>C20*D20</f>
+        <v>30</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>28.837447512753872</v>
+      </c>
+      <c r="O20" s="17">
+        <f ca="1">ROUNDUP((J20+K20)/C20,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>C20*(E20*D20)</f>
+        <v>60</v>
+      </c>
+      <c r="R20" s="2">
+        <f ca="1">Q20-J20</f>
+        <v>59.18027994153703</v>
+      </c>
+      <c r="S20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1972005846297061E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.68566485756631168</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6394401169259412</v>
-      </c>
-      <c r="I18" s="8">
-        <v>3</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.9180279941537028</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>58.36055988307406</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.97267599805123439</v>
-      </c>
-      <c r="N18" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="7">
+        <v>0.98633799902561714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="7">
         <v>200</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="8">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7">
         <v>10</v>
       </c>
-      <c r="D19">
+      <c r="E21" s="7">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="F21">
         <f t="shared" ca="1" si="0"/>
         <v>1.8171244363105027E-3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G21" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36342488726210054</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39770813014041612</v>
+      </c>
+      <c r="I21" s="2">
+        <f ca="1">C21-H21</f>
+        <v>3.6022918698595841</v>
+      </c>
+      <c r="J21" s="2">
+        <f ca="1">G21*D21</f>
+        <v>3.6342488726210052</v>
+      </c>
+      <c r="K21" s="2">
+        <f>D21*$A$3</f>
+        <v>0.34283242878315584</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9770813014041608</v>
+      </c>
+      <c r="M21" s="2">
+        <f>C21*D21</f>
+        <v>40</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>36.022918698595838</v>
+      </c>
+      <c r="O21" s="17">
+        <f ca="1">ROUNDUP((J21+K21)/C21,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>C21*(E21*D21)</f>
+        <v>160</v>
+      </c>
+      <c r="R21" s="2">
+        <f ca="1">Q21-J21</f>
+        <v>156.36575112737899</v>
+      </c>
+      <c r="S21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36342488726210054</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3713297151326234</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.536995490484021</v>
-      </c>
-      <c r="I19" s="8">
+        <v>0.97728594454611861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="7">
+        <v>750</v>
+      </c>
+      <c r="C22" s="8">
         <v>4</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.6365751127378996</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>145.46300450951597</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.90914377818447478</v>
-      </c>
-      <c r="N19" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="7">
-        <v>750</v>
-      </c>
-      <c r="C20">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="E22" s="7">
         <v>3</v>
       </c>
-      <c r="E20">
+      <c r="F22">
         <f t="shared" ca="1" si="0"/>
         <v>1.6562836797710709E-4</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G22" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12422127598283031</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15850451886114589</v>
+      </c>
+      <c r="I22" s="2">
+        <f ca="1">C22-H22</f>
+        <v>3.8414954811388542</v>
+      </c>
+      <c r="J22" s="2">
+        <f ca="1">G22*D22</f>
+        <v>0.12422127598283031</v>
+      </c>
+      <c r="K22" s="2">
+        <f>D22*$A$3</f>
+        <v>3.4283242878315585E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15850451886114589</v>
+      </c>
+      <c r="M22" s="2">
+        <f>C22*D22</f>
+        <v>4</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8414954811388542</v>
+      </c>
+      <c r="O22" s="17">
+        <f ca="1">ROUNDUP((J22+K22)/C22,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>C22*(E22*D22)</f>
+        <v>12</v>
+      </c>
+      <c r="R22" s="2">
+        <f ca="1">Q22-J22</f>
+        <v>11.87577872401717</v>
+      </c>
+      <c r="S22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12422127598283031</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.10284972863494675</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.37266382794849096</v>
-      </c>
-      <c r="I20" s="8">
-        <v>4</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8757787240171697</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="5"/>
+        <v>0.98964822700143085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7">
+        <v>700</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
         <v>12</v>
       </c>
-      <c r="L20" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>11.627336172051509</v>
-      </c>
-      <c r="M20" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.96894468100429243</v>
-      </c>
-      <c r="N20" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7">
-        <v>700</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
+      <c r="E23" s="7">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="F23">
         <f t="shared" ca="1" si="0"/>
         <v>1.2489364710006217E-3</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G23" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.87425552970043519</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.90853877257875082</v>
+      </c>
+      <c r="I23" s="2">
+        <f ca="1">C23-H23</f>
+        <v>4.0914612274212487</v>
+      </c>
+      <c r="J23" s="2">
+        <f ca="1">G23*D23</f>
+        <v>10.491066356405222</v>
+      </c>
+      <c r="K23" s="2">
+        <f>D23*$A$3</f>
+        <v>0.41139891453978705</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>10.902465270945008</v>
+      </c>
+      <c r="M23" s="2">
+        <f>C23*D23</f>
+        <v>60</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>49.097534729054992</v>
+      </c>
+      <c r="O23" s="17">
+        <f ca="1">ROUNDUP((J23+K23)/C23,0)</f>
+        <v>3</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>C23*(E23*D23)</f>
+        <v>120</v>
+      </c>
+      <c r="R23" s="2">
+        <f ca="1">Q23-J23</f>
+        <v>109.50893364359477</v>
+      </c>
+      <c r="S23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87425552970043519</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="2"/>
-        <v>0.82279782907957399</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>20.982132712810444</v>
-      </c>
-      <c r="I21" s="8">
+        <v>0.91257444702995649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="7">
+        <v>550</v>
+      </c>
+      <c r="C24" s="8">
         <v>5</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.1257444702995647</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>99.01786728718956</v>
-      </c>
-      <c r="M21" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.82514889405991299</v>
-      </c>
-      <c r="N21" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="7">
-        <v>550</v>
-      </c>
-      <c r="C22">
+      <c r="D24" s="7">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="E24" s="7">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="F24">
         <f t="shared" ca="1" si="0"/>
         <v>8.2203239056607925E-4</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G24" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45211781481134361</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48640105768965919</v>
+      </c>
+      <c r="I24" s="2">
+        <f ca="1">C24-H24</f>
+        <v>4.5135989423103409</v>
+      </c>
+      <c r="J24" s="2">
+        <f ca="1">G24*D24</f>
+        <v>3.6169425184907489</v>
+      </c>
+      <c r="K24" s="2">
+        <f>D24*$A$3</f>
+        <v>0.27426594302652468</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8912084615172735</v>
+      </c>
+      <c r="M24" s="2">
+        <f>C24*D24</f>
+        <v>40</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>36.108791538482727</v>
+      </c>
+      <c r="O24" s="17">
+        <f ca="1">ROUNDUP((J24+K24)/C24,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P24" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>C24*(E24*D24)</f>
+        <v>160</v>
+      </c>
+      <c r="R24" s="2">
+        <f ca="1">Q24-J24</f>
+        <v>156.38305748150924</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45211781481134361</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0970637721060987</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.467770073962996</v>
-      </c>
-      <c r="I22" s="8">
+        <v>0.97739410925943271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="7">
+        <v>450</v>
+      </c>
+      <c r="C25" s="8">
         <v>5</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5478821851886568</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>145.53222992603702</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.90957643703773139</v>
-      </c>
-      <c r="N22" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="7">
-        <v>450</v>
-      </c>
-      <c r="C23">
+      <c r="D25" s="7">
         <v>7</v>
       </c>
-      <c r="D23">
+      <c r="E25" s="7">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="F25">
         <f t="shared" ca="1" si="0"/>
         <v>9.3721587804243924E-4</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G25" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42174714511909767</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45603038799741324</v>
+      </c>
+      <c r="I25" s="2">
+        <f ca="1">C25-H25</f>
+        <v>4.543969612002587</v>
+      </c>
+      <c r="J25" s="2">
+        <f ca="1">G25*D25</f>
+        <v>2.9522300158336838</v>
+      </c>
+      <c r="K25" s="2">
+        <f>D25*$A$3</f>
+        <v>0.2399827001482091</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1922127159818929</v>
+      </c>
+      <c r="M25" s="2">
+        <f>C25*D25</f>
+        <v>35</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>31.807787284018108</v>
+      </c>
+      <c r="O25" s="17">
+        <f ca="1">ROUNDUP((J25+K25)/C25,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>C25*(E25*D25)</f>
+        <v>70</v>
+      </c>
+      <c r="R25" s="2">
+        <f ca="1">Q25-J25</f>
+        <v>67.047769984166322</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42174714511909767</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47996540029641821</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.9044600316673677</v>
-      </c>
-      <c r="I23" s="8">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.5782528548809021</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>64.095539968332631</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.91565057097618041</v>
-      </c>
-      <c r="N23" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="7">
+        <v>0.95782528548809032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="7">
         <v>90</v>
       </c>
-      <c r="C24">
+      <c r="C26" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D26" s="7">
         <v>6</v>
       </c>
-      <c r="D24">
+      <c r="E26" s="7">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="F26">
         <f t="shared" ca="1" si="0"/>
         <v>1.2728212578956718E-3</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G26" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11455391321061045</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.14883715608892603</v>
+      </c>
+      <c r="I26" s="2">
+        <f ca="1">C26-H26</f>
+        <v>0.75116284391107402</v>
+      </c>
+      <c r="J26" s="2">
+        <f ca="1">G26*D26</f>
+        <v>0.68732347926366266</v>
+      </c>
+      <c r="K26" s="2">
+        <f>D26*$A$3</f>
+        <v>0.20569945726989353</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.89302293653355624</v>
+      </c>
+      <c r="M26" s="2">
+        <f>C26*D26</f>
+        <v>5.4</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.5069770634664437</v>
+      </c>
+      <c r="O26" s="17">
+        <f ca="1">ROUNDUP((J26+K26)/C26,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P26" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>C26*(E26*D26)</f>
+        <v>10.8</v>
+      </c>
+      <c r="R26" s="2">
+        <f ca="1">Q26-J26</f>
+        <v>10.112676520736338</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11455391321061045</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.411398914539787</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3746469585273253</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.78544608678938954</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="5"/>
-        <v>10.8</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.4253530414726754</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.8727178742104329</v>
-      </c>
-      <c r="N24" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="7">
+        <v>0.93635893710521645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="7">
         <v>675</v>
       </c>
-      <c r="C25">
+      <c r="C27" s="8">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="E27" s="7">
         <v>21</v>
       </c>
-      <c r="E25">
+      <c r="F27">
         <f t="shared" ca="1" si="0"/>
         <v>1.4101030540580684E-3</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G27" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.95181956148919611</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.98610280436751174</v>
+      </c>
+      <c r="I27" s="2">
+        <f ca="1">C27-H27</f>
+        <v>4.013897195632488</v>
+      </c>
+      <c r="J27" s="2">
+        <f ca="1">G27*D27</f>
+        <v>3.8072782459567844</v>
+      </c>
+      <c r="K27" s="2">
+        <f>D27*$A$3</f>
+        <v>0.13713297151326234</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.944411217470047</v>
+      </c>
+      <c r="M27" s="2">
+        <f>C27*D27</f>
+        <v>20</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>16.055588782529952</v>
+      </c>
+      <c r="O27" s="17">
+        <f ca="1">ROUNDUP((J27+K27)/C27,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P27" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>C27*(E27*D27)</f>
+        <v>420</v>
+      </c>
+      <c r="R27" s="2">
+        <f ca="1">Q27-J27</f>
+        <v>416.19272175404319</v>
+      </c>
+      <c r="S27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95181956148919611</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="2"/>
-        <v>2.8797924017785093</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>79.952843165092474</v>
-      </c>
-      <c r="I25" s="8">
-        <v>5</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.048180438510804</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="5"/>
-        <v>420</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>340.04715683490753</v>
-      </c>
-      <c r="M25" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.80963608770216078</v>
-      </c>
-      <c r="N25" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="7">
+        <v>0.99093505179534092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="7">
         <v>70</v>
       </c>
-      <c r="C26">
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
         <v>24</v>
       </c>
-      <c r="D26">
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="E26">
+      <c r="F28">
         <f t="shared" ca="1" si="0"/>
         <v>1.4101030540580684E-3</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G28" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.8707213784064787E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13299045666238038</v>
+      </c>
+      <c r="I28" s="2">
+        <f ca="1">C28-H28</f>
+        <v>1.8670095433376197</v>
+      </c>
+      <c r="J28" s="2">
+        <f ca="1">G28*D28</f>
+        <v>2.368973130817555</v>
+      </c>
+      <c r="K28" s="2">
+        <f>D28*$A$3</f>
+        <v>0.82279782907957411</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1917709598971289</v>
+      </c>
+      <c r="M28" s="2">
+        <f>C28*D28</f>
+        <v>48</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>44.808229040102873</v>
+      </c>
+      <c r="O28" s="17">
+        <f ca="1">ROUNDUP((J28+K28)/C28,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P28" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>C28*(E28*D28)</f>
+        <v>96</v>
+      </c>
+      <c r="R28" s="2">
+        <f ca="1">Q28-J28</f>
+        <v>93.631026869182449</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8707213784064787E-2</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="2"/>
-        <v>1.645595658159148</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.73794626163511</v>
-      </c>
-      <c r="I26" s="8">
-        <v>2</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9012927862159352</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="5"/>
-        <v>96</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>91.262053738364884</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.9506463931079675</v>
-      </c>
-      <c r="N26" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="7">
+        <v>0.97532319655398381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="7">
         <v>650</v>
       </c>
-      <c r="C27">
+      <c r="C29" s="8">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="E29" s="7">
         <v>4.5</v>
       </c>
-      <c r="E27">
+      <c r="F29">
         <f t="shared" ca="1" si="0"/>
         <v>1.4738923597772675E-3</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G29" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.95803003385522389</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99231327673353953</v>
+      </c>
+      <c r="I29" s="2">
+        <f ca="1">C29-H29</f>
+        <v>4.0076867232664606</v>
+      </c>
+      <c r="J29" s="2">
+        <f ca="1">G29*D29</f>
+        <v>3.8321201354208956</v>
+      </c>
+      <c r="K29" s="2">
+        <f>D29*$A$3</f>
+        <v>0.13713297151326234</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9692531069341581</v>
+      </c>
+      <c r="M29" s="2">
+        <f>C29*D29</f>
+        <v>20</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>16.030746893065842</v>
+      </c>
+      <c r="O29" s="17">
+        <f ca="1">ROUNDUP((J29+K29)/C29,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>C29*(E29*D29)</f>
+        <v>90</v>
+      </c>
+      <c r="R29" s="2">
+        <f ca="1">Q29-J29</f>
+        <v>86.167879864579106</v>
+      </c>
+      <c r="S29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95803003385522389</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.61709837180968052</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>17.244540609394029</v>
-      </c>
-      <c r="I27" s="8">
-        <v>5</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.0419699661447765</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>72.755459390605978</v>
-      </c>
-      <c r="M27" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.80839399322895533</v>
-      </c>
-      <c r="N27" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>0.95742088738421227</v>
       </c>
     </row>
   </sheetData>
@@ -3915,19 +4513,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4012,7 +4610,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -4054,19 +4652,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4131,7 +4729,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -4151,7 +4749,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -4191,7 +4789,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B2:B7)</f>
@@ -4233,19 +4831,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4310,7 +4908,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
@@ -4350,7 +4948,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
@@ -4392,19 +4990,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4489,7 +5087,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -4531,19 +5129,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,7 +5266,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B2:B7)</f>
@@ -4710,19 +5308,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4807,7 +5405,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -4849,19 +5447,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4946,7 +5544,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -4988,19 +5586,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5065,7 +5663,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7">
         <v>30</v>
@@ -5105,7 +5703,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
@@ -5144,19 +5742,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5221,7 +5819,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7">
         <v>15</v>
@@ -5261,7 +5859,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7">
         <v>10</v>
@@ -5281,7 +5879,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B2:B7)</f>
@@ -5325,19 +5923,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5402,7 +6000,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B5" s="7">
         <v>50</v>
@@ -5442,7 +6040,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B2:B6)</f>
@@ -5477,31 +6075,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>74</v>
+      <c r="B1" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5509,7 +6107,7 @@
         <f>Ingredients!A2</f>
         <v>basic loaf</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <f ca="1">SUMIF(D2:AB2,"&lt;&gt;#N/A")</f>
         <v>0</v>
       </c>
@@ -5518,23 +6116,23 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A2,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5543,33 +6141,33 @@
         <f>Ingredients!A3</f>
         <v>Victoria flour</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f ca="1">SUMIF(D3:AB3,"&lt;&gt;#N/A")</f>
-        <v>60416.048264578712</v>
+        <v>29624.200688806548</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">IFERROR(B3/VLOOKUP(A3,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>2.6638939075018393</v>
+        <v>1.3062047253393601</v>
       </c>
       <c r="D3">
-        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>8442.2110552763806</v>
+        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>21105.52763819095</v>
       </c>
       <c r="F3">
-        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>42853.837209302328</v>
+        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>5412.7906976744189</v>
       </c>
       <c r="G3">
-        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>9120.0000000000018</v>
+        <f ca="1">IFERROR((VLOOKUP($A3,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>3105.882352941177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5577,7 +6175,7 @@
         <f>Ingredients!A4</f>
         <v>Chocolate chips 2m</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <f t="shared" ref="B4:B21" ca="1" si="0">SUMIF(D4:AB4,"&lt;&gt;#N/A")</f>
         <v>0</v>
       </c>
@@ -5586,23 +6184,23 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A4,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5611,33 +6209,33 @@
         <f>Ingredients!A5</f>
         <v>Butter</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>1368</v>
+        <v>465.88235294117652</v>
       </c>
       <c r="C5" s="6">
         <f ca="1">IFERROR(B5/VLOOKUP(A5,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>1368</v>
+        <v>465.88235294117652</v>
       </c>
       <c r="D5">
-        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>1368</v>
+        <f ca="1">IFERROR((VLOOKUP($A5,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>465.88235294117652</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5645,33 +6243,33 @@
         <f>Ingredients!A6</f>
         <v>salt</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>906.24072396868064</v>
+        <v>444.36301033209827</v>
       </c>
       <c r="C6" s="6">
         <f ca="1">IFERROR(B6/VLOOKUP(A6,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>3.9958408612527592E-2</v>
+        <v>1.9593070880090404E-2</v>
       </c>
       <c r="D6">
-        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>126.63316582914572</v>
+        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>316.5829145728643</v>
       </c>
       <c r="F6">
-        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>642.80755813953499</v>
+        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>81.191860465116278</v>
       </c>
       <c r="G6">
-        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>136.80000000000001</v>
+        <f ca="1">IFERROR((VLOOKUP($A6,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>46.588235294117659</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5679,33 +6277,33 @@
         <f>Ingredients!A7</f>
         <v>yeast</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>302.08024132289358</v>
+        <v>148.12100344403277</v>
       </c>
       <c r="C7" s="6">
         <f ca="1">IFERROR(B7/VLOOKUP(A7,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>6.6596173131149378E-2</v>
+        <v>3.2654542205474597E-2</v>
       </c>
       <c r="D7">
-        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>42.211055276381913</v>
+        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>105.52763819095478</v>
       </c>
       <c r="F7">
-        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>214.26918604651163</v>
+        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>27.063953488372093</v>
       </c>
       <c r="G7">
-        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>45.6</v>
+        <f ca="1">IFERROR((VLOOKUP($A7,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>15.529411764705884</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5713,32 +6311,32 @@
         <f>Ingredients!A8</f>
         <v>fennel seeds</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>168.84422110552765</v>
+        <v>422.1105527638191</v>
       </c>
       <c r="C8" s="6">
         <f ca="1">IFERROR(B8/VLOOKUP(A8,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>1.4597554608094129E-2</v>
+        <v>3.6493886520235323E-2</v>
       </c>
       <c r="D8">
-        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>168.84422110552765</v>
+        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>422.1105527638191</v>
       </c>
       <c r="F8">
-        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A8,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5747,32 +6345,32 @@
         <f>Ingredients!A9</f>
         <v>raisins</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>2110.5527638190952</v>
+        <v>5276.3819095477375</v>
       </c>
       <c r="C9" s="6">
         <f ca="1">IFERROR(B9/VLOOKUP(A9,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>9.3059523264038838E-2</v>
+        <v>0.23264880816009709</v>
       </c>
       <c r="D9">
-        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>2110.5527638190952</v>
+        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>5276.3819095477375</v>
       </c>
       <c r="F9">
-        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A9,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5781,33 +6379,33 @@
         <f>Ingredients!A10</f>
         <v>water</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>41379.233785205091</v>
+        <v>20426.352246870469</v>
       </c>
       <c r="C10" s="6">
         <f ca="1">IFERROR(B10/VLOOKUP(A10,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>1.8245133858271352</v>
+        <v>0.9006486995745282</v>
       </c>
       <c r="D10">
-        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>5909.5477386934672</v>
+        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>14773.869346733669</v>
       </c>
       <c r="F10">
-        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>29997.686046511626</v>
+        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>3788.9534883720926</v>
       </c>
       <c r="G10">
-        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>5472</v>
+        <f ca="1">IFERROR((VLOOKUP($A10,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>1863.5294117647061</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5815,7 +6413,7 @@
         <f>Ingredients!A11</f>
         <v>sesame seeds</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -5824,23 +6422,23 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A11,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5849,33 +6447,33 @@
         <f>Ingredients!A12</f>
         <v>eggs</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>911.99999999999989</v>
+        <v>310.58823529411768</v>
       </c>
       <c r="C12" s="6">
         <f ca="1">IFERROR(B12/VLOOKUP(A12,Ingredients!A:B,2),"Ingredient unlisted")</f>
-        <v>2.0105820105820102</v>
+        <v>0.68471833177715535</v>
       </c>
       <c r="D12">
-        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
-        <v>911.99999999999989</v>
+        <f ca="1">IFERROR((VLOOKUP($A12,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
+        <v>310.58823529411768</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5883,7 +6481,7 @@
         <f>Ingredients!A13</f>
         <v>KA Galahad flour</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -5892,23 +6490,23 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A13,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5917,7 +6515,7 @@
         <f>Ingredients!A14</f>
         <v>Transitional flour</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -5926,23 +6524,23 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A14,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5951,7 +6549,7 @@
         <f>Ingredients!A16</f>
         <v>whole wheat</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -5960,23 +6558,23 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A15,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5985,7 +6583,7 @@
         <f>Ingredients!A17</f>
         <v>sugar</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -5994,23 +6592,23 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A16,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6019,7 +6617,7 @@
         <f>Ingredients!A18</f>
         <v>sunflower seed oil</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -6028,23 +6626,23 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A17,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6053,7 +6651,7 @@
         <f>Ingredients!A19</f>
         <v>cocoa powder</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -6062,23 +6660,23 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F18">
-        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A18,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6087,7 +6685,7 @@
         <f>Ingredients!A20</f>
         <v>pistachios</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -6096,23 +6694,23 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E19">
-        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H19">
-        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A19,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6121,7 +6719,7 @@
         <f>Ingredients!A21</f>
         <v>coconut oil</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -6130,23 +6728,23 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H20">
-        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A20,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6155,7 +6753,7 @@
         <f>Ingredients!A22</f>
         <v>almonds</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -6164,23 +6762,23 @@
         <v>Ingredient unlisted</v>
       </c>
       <c r="D21">
-        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;D$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(D$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(D$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;E$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(E$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(E$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;F$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(F$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(F$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;G$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(G$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(G$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$E,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$E,4,FALSE),0)</f>
+        <f ca="1">IFERROR((VLOOKUP($A21,INDIRECT("'"&amp;H$1&amp;"'"&amp;"!A:E"),4,FALSE))*VLOOKUP(H$1,'Margin Analysis'!$A:$F,2,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,3,FALSE)*VLOOKUP(H$1,'Margin Analysis'!$A:$F,4,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6286,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6298,7 +6896,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -6329,8 +6927,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>70</v>
+      <c r="A4" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="7">
         <v>13607.8</v>
@@ -6344,7 +6942,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7">
@@ -6389,7 +6987,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7">
@@ -6404,7 +7002,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7">
@@ -6434,8 +7032,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>27</v>
+      <c r="A11" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="7">
         <v>22679.599999999999</v>
@@ -6449,8 +7047,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>30</v>
+      <c r="A12" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="7">
         <v>12240</v>
@@ -6465,7 +7063,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="7">
         <v>22679.599999999999</v>
@@ -6480,7 +7078,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" s="7">
         <v>22679.599999999999</v>
@@ -6495,7 +7093,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15" s="7">
         <v>22679.599999999999</v>
@@ -6510,7 +7108,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B16" s="7">
         <v>22679.599999999999</v>
@@ -6525,7 +7123,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B17" s="7">
         <v>22679.599999999999</v>
@@ -6540,7 +7138,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B18" s="7">
         <v>11339.8</v>
@@ -6555,7 +7153,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" s="7">
         <v>3000</v>
@@ -6570,7 +7168,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" s="7">
         <v>2721.55</v>
@@ -6585,7 +7183,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B21" s="7">
         <v>17236.5</v>
@@ -6600,7 +7198,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7">
         <v>11339.8</v>
@@ -6615,7 +7213,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B23" s="7">
         <v>22679.599999999999</v>
@@ -6628,12 +7226,12 @@
         <v>1.1023122100918888E-3</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B24" s="7">
         <v>2268</v>
@@ -6648,7 +7246,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7">
         <v>2784</v>
@@ -6663,7 +7261,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B26" s="7">
         <v>4536</v>
@@ -6864,19 +7462,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6961,7 +7559,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
@@ -7003,24 +7601,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -7040,7 +7638,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -7080,7 +7678,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7">
         <v>15</v>
@@ -7100,7 +7698,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -7160,7 +7758,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4">
         <f>SUM(B2:B8)</f>
@@ -7202,24 +7800,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -7239,7 +7837,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B3" s="7">
         <v>100</v>
@@ -7279,7 +7877,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7">
         <v>15</v>
@@ -7299,7 +7897,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -7359,7 +7957,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4">
         <f>SUM(B2:B8)</f>
@@ -7401,24 +7999,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7">
         <v>100</v>
@@ -7438,7 +8036,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B3" s="7">
         <v>100</v>
@@ -7478,7 +8076,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7">
         <v>15</v>
@@ -7498,7 +8096,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
@@ -7532,7 +8130,7 @@
         <v>1.718213058419244E-3</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E4:E8" si="2">D7*C7</f>
+        <f t="shared" ref="E7:E8" si="2">D7*C7</f>
         <v>1.1206298127736139E-5</v>
       </c>
     </row>
@@ -7558,7 +8156,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4">
         <f>SUM(B2:B8)</f>
@@ -7600,19 +8198,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7677,7 +8275,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7">
         <v>10</v>
@@ -7697,7 +8295,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7">
         <v>3</v>
@@ -7737,7 +8335,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B2:B7)</f>
